--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhagya_Kudupudi\eclipse-workspace\DataDrivenFramework_Weekend\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C48366-5CE5-4FFD-9204-1A4595672983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7CAF1B-589A-429C-AACB-DC221FE590DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doReg" sheetId="2" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +57,15 @@
   </si>
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>ER34GH</t>
+  </si>
+  <si>
+    <t>T6yHH5</t>
   </si>
 </sst>
 </file>
@@ -429,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC679237-012F-41E7-A0AA-9CBBB6711A22}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +472,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0093AB4-8ED0-48E3-9063-229B7859C5AF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhagya_Kudupudi\eclipse-workspace\DataDrivenFramework_Weekend\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7CAF1B-589A-429C-AACB-DC221FE590DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2259A-BC27-4E9A-BEF1-9CBF490D680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doReg" sheetId="2" r:id="rId2"/>
     <sheet name="addCustomer" sheetId="4" r:id="rId3"/>
+    <sheet name="openAccount" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -66,6 +67,24 @@
   </si>
   <si>
     <t>T6yHH5</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>bhagya kudupudi</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>selenium testing</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -478,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0093AB4-8ED0-48E3-9063-229B7859C5AF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,4 +539,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B106DC-C7D9-4397-B9DA-20ABDCB68D79}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>